--- a/2023_docs_テーブル設計/DDL生成ツール/テーブル定義.xlsx
+++ b/2023_docs_テーブル設計/DDL生成ツール/テーブル定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Development\kTwenty23\データベース操作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudakento\git\portfolio2023\2023_docs_テーブル設計\DDL生成ツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA12EB43-D8A1-4478-B398-306EB1255059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4647ECA0-2877-4741-8FAF-911B52B300F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="750" windowWidth="23130" windowHeight="13650" activeTab="2" xr2:uid="{179B33A7-CF03-4898-8323-C9BCFA4B4D23}"/>
+    <workbookView xWindow="2723" yWindow="2813" windowWidth="23130" windowHeight="13650" activeTab="2" xr2:uid="{179B33A7-CF03-4898-8323-C9BCFA4B4D23}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -1729,9 +1729,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -5193,7 +5191,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:G1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" outlineLevelCol="1" x14ac:dyDescent="0.7"/>
@@ -6139,9 +6137,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -6263,7 +6259,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" outlineLevelCol="1" x14ac:dyDescent="0.7"/>
